--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,13 +88,13 @@
     <t>Fzd9</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.73335252099574</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H2">
-        <v>1.73335252099574</v>
+        <v>0.032107</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.103631416973459</v>
+        <v>0.514018</v>
       </c>
       <c r="N2">
-        <v>0.103631416973459</v>
+        <v>1.542054</v>
       </c>
       <c r="O2">
-        <v>0.1114524542020488</v>
+        <v>0.2743122022496015</v>
       </c>
       <c r="P2">
-        <v>0.1114524542020488</v>
+        <v>0.2743122022496015</v>
       </c>
       <c r="Q2">
-        <v>0.1796297778653059</v>
+        <v>0.005501191975333333</v>
       </c>
       <c r="R2">
-        <v>0.1796297778653059</v>
+        <v>0.049510727778</v>
       </c>
       <c r="S2">
-        <v>0.1114524542020488</v>
+        <v>0.001650590920776952</v>
       </c>
       <c r="T2">
-        <v>0.1114524542020488</v>
+        <v>0.001650590920776951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.73335252099574</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H3">
-        <v>1.73335252099574</v>
+        <v>0.032107</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.248467197939173</v>
+        <v>0.5446803333333333</v>
       </c>
       <c r="N3">
-        <v>0.248467197939173</v>
+        <v>1.634041</v>
       </c>
       <c r="O3">
-        <v>0.2672189554845064</v>
+        <v>0.2906755439667749</v>
       </c>
       <c r="P3">
-        <v>0.2672189554845064</v>
+        <v>0.2906755439667749</v>
       </c>
       <c r="Q3">
-        <v>0.4306812439326131</v>
+        <v>0.005829350487444444</v>
       </c>
       <c r="R3">
-        <v>0.4306812439326131</v>
+        <v>0.052464154387</v>
       </c>
       <c r="S3">
-        <v>0.2672189554845064</v>
+        <v>0.001749052392962432</v>
       </c>
       <c r="T3">
-        <v>0.2672189554845064</v>
+        <v>0.001749052392962432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -661,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.73335252099574</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H4">
-        <v>1.73335252099574</v>
+        <v>0.032107</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0803325460334743</v>
+        <v>0.1138553333333334</v>
       </c>
       <c r="N4">
-        <v>0.0803325460334743</v>
+        <v>0.341566</v>
       </c>
       <c r="O4">
-        <v>0.08639522327503044</v>
+        <v>0.0607603376234473</v>
       </c>
       <c r="P4">
-        <v>0.08639522327503044</v>
+        <v>0.06076033762344728</v>
       </c>
       <c r="Q4">
-        <v>0.139244621185129</v>
+        <v>0.001218517729111111</v>
       </c>
       <c r="R4">
-        <v>0.139244621185129</v>
+        <v>0.010966659562</v>
       </c>
       <c r="S4">
-        <v>0.08639522327503044</v>
+        <v>0.0003656070010817392</v>
       </c>
       <c r="T4">
-        <v>0.08639522327503044</v>
+        <v>0.0003656070010817391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.73335252099574</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H5">
-        <v>1.73335252099574</v>
+        <v>0.032107</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.104025623747056</v>
+        <v>0.1469773333333333</v>
       </c>
       <c r="N5">
-        <v>0.104025623747056</v>
+        <v>0.440932</v>
       </c>
       <c r="O5">
-        <v>0.1118764116626682</v>
+        <v>0.07843631154442145</v>
       </c>
       <c r="P5">
-        <v>0.1118764116626682</v>
+        <v>0.07843631154442145</v>
       </c>
       <c r="Q5">
-        <v>0.1803130771701139</v>
+        <v>0.001573000413777778</v>
       </c>
       <c r="R5">
-        <v>0.1803130771701139</v>
+        <v>0.014157003724</v>
       </c>
       <c r="S5">
-        <v>0.1118764116626682</v>
+        <v>0.0004719668415503106</v>
       </c>
       <c r="T5">
-        <v>0.1118764116626682</v>
+        <v>0.0004719668415503106</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,49 +788,483 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.73335252099574</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H6">
-        <v>1.73335252099574</v>
+        <v>0.032107</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.393369460187805</v>
+        <v>0.04771466666666666</v>
       </c>
       <c r="N6">
-        <v>0.393369460187805</v>
+        <v>0.143144</v>
       </c>
       <c r="O6">
-        <v>0.4230569553757462</v>
+        <v>0.02546353492083737</v>
       </c>
       <c r="P6">
-        <v>0.4230569553757462</v>
+        <v>0.02546353492083737</v>
       </c>
       <c r="Q6">
-        <v>0.6818479454992652</v>
+        <v>0.0005106582675555555</v>
       </c>
       <c r="R6">
-        <v>0.6818479454992652</v>
+        <v>0.004595924408</v>
       </c>
       <c r="S6">
-        <v>0.4230569553757462</v>
+        <v>0.0001532191393840267</v>
       </c>
       <c r="T6">
-        <v>0.4230569553757462</v>
+        <v>0.0001532191393840267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01070233333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.032107</v>
+      </c>
+      <c r="I7">
+        <v>0.006017198313602724</v>
+      </c>
+      <c r="J7">
+        <v>0.006017198313602724</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5065973333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.519792</v>
+      </c>
+      <c r="O7">
+        <v>0.2703520696949175</v>
+      </c>
+      <c r="P7">
+        <v>0.2703520696949175</v>
+      </c>
+      <c r="Q7">
+        <v>0.005421773527111111</v>
+      </c>
+      <c r="R7">
+        <v>0.048795961744</v>
+      </c>
+      <c r="S7">
+        <v>0.001626762017847264</v>
+      </c>
+      <c r="T7">
+        <v>0.001626762017847264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H8">
+        <v>5.303765</v>
+      </c>
+      <c r="I8">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J8">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.514018</v>
+      </c>
+      <c r="N8">
+        <v>1.542054</v>
+      </c>
+      <c r="O8">
+        <v>0.2743122022496015</v>
+      </c>
+      <c r="P8">
+        <v>0.2743122022496015</v>
+      </c>
+      <c r="Q8">
+        <v>0.9087435592566667</v>
+      </c>
+      <c r="R8">
+        <v>8.17869203331</v>
+      </c>
+      <c r="S8">
+        <v>0.2726616113288245</v>
+      </c>
+      <c r="T8">
+        <v>0.2726616113288245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H9">
+        <v>5.303765</v>
+      </c>
+      <c r="I9">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J9">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5446803333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.634041</v>
+      </c>
+      <c r="O9">
+        <v>0.2906755439667749</v>
+      </c>
+      <c r="P9">
+        <v>0.2906755439667749</v>
+      </c>
+      <c r="Q9">
+        <v>0.9629521627072223</v>
+      </c>
+      <c r="R9">
+        <v>8.666569464365001</v>
+      </c>
+      <c r="S9">
+        <v>0.2889264915738124</v>
+      </c>
+      <c r="T9">
+        <v>0.2889264915738124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H10">
+        <v>5.303765</v>
+      </c>
+      <c r="I10">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J10">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1138553333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.341566</v>
+      </c>
+      <c r="O10">
+        <v>0.0607603376234473</v>
+      </c>
+      <c r="P10">
+        <v>0.06076033762344728</v>
+      </c>
+      <c r="Q10">
+        <v>0.2012873106655556</v>
+      </c>
+      <c r="R10">
+        <v>1.81158579599</v>
+      </c>
+      <c r="S10">
+        <v>0.06039473062236556</v>
+      </c>
+      <c r="T10">
+        <v>0.06039473062236555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H11">
+        <v>5.303765</v>
+      </c>
+      <c r="I11">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J11">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.1469773333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.440932</v>
+      </c>
+      <c r="O11">
+        <v>0.07843631154442145</v>
+      </c>
+      <c r="P11">
+        <v>0.07843631154442145</v>
+      </c>
+      <c r="Q11">
+        <v>0.2598444121088889</v>
+      </c>
+      <c r="R11">
+        <v>2.33859970898</v>
+      </c>
+      <c r="S11">
+        <v>0.07796434470287114</v>
+      </c>
+      <c r="T11">
+        <v>0.07796434470287114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H12">
+        <v>5.303765</v>
+      </c>
+      <c r="I12">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J12">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.04771466666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.143144</v>
+      </c>
+      <c r="O12">
+        <v>0.02546353492083737</v>
+      </c>
+      <c r="P12">
+        <v>0.02546353492083737</v>
+      </c>
+      <c r="Q12">
+        <v>0.08435579301777778</v>
+      </c>
+      <c r="R12">
+        <v>0.75920213716</v>
+      </c>
+      <c r="S12">
+        <v>0.02531031578145335</v>
+      </c>
+      <c r="T12">
+        <v>0.02531031578145335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H13">
+        <v>5.303765</v>
+      </c>
+      <c r="I13">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J13">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5065973333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.519792</v>
+      </c>
+      <c r="O13">
+        <v>0.2703520696949175</v>
+      </c>
+      <c r="P13">
+        <v>0.2703520696949175</v>
+      </c>
+      <c r="Q13">
+        <v>0.8956244018755557</v>
+      </c>
+      <c r="R13">
+        <v>8.06061961688</v>
+      </c>
+      <c r="S13">
+        <v>0.2687253076770703</v>
+      </c>
+      <c r="T13">
+        <v>0.2687253076770702</v>
       </c>
     </row>
   </sheetData>
